--- a/docentes/Santiago Hernández Mariana - Estadisticos 2020.xlsx
+++ b/docentes/Santiago Hernández Mariana - Estadisticos 2020.xlsx
@@ -919,7 +919,7 @@
         <v>9</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Santiago Hernández Mariana - Estadisticos 2020.xlsx
+++ b/docentes/Santiago Hernández Mariana - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="19">
   <si>
     <t>Mat</t>
   </si>
@@ -74,15 +74,6 @@
   </si>
   <si>
     <t>Reprobadas</t>
-  </si>
-  <si>
-    <t>ROSAS</t>
-  </si>
-  <si>
-    <t>GASPAR</t>
-  </si>
-  <si>
-    <t>DIANA SARAY</t>
   </si>
 </sst>
 </file>
@@ -866,7 +857,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -899,29 +890,6 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>20330051920211</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Santiago Hernández Mariana - Estadisticos 2020.xlsx
+++ b/docentes/Santiago Hernández Mariana - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="169">
   <si>
     <t>Mat</t>
   </si>
@@ -74,6 +74,456 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>BALTAZARES</t>
+  </si>
+  <si>
+    <t>ESPERON</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>GALVEZ</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>MELENDEZ</t>
+  </si>
+  <si>
+    <t>MUÑOZ</t>
+  </si>
+  <si>
+    <t>PEÑA</t>
+  </si>
+  <si>
+    <t>ROSAS</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>SANTIAGO</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>VELAZQUEZ</t>
+  </si>
+  <si>
+    <t>CORONA</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>TELLEZ</t>
+  </si>
+  <si>
+    <t>CARRERA</t>
+  </si>
+  <si>
+    <t>CUATRA</t>
+  </si>
+  <si>
+    <t>MARCIAL</t>
+  </si>
+  <si>
+    <t>PACHECO</t>
+  </si>
+  <si>
+    <t>DE LA ROSA</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>CASTRO</t>
+  </si>
+  <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>GUTIERREZ</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>OJEDA</t>
+  </si>
+  <si>
+    <t>CASTELLANOS</t>
+  </si>
+  <si>
+    <t>CONGUILLO</t>
+  </si>
+  <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
+    <t>MIXTEGA</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>OLTEHUA</t>
+  </si>
+  <si>
+    <t>OLIVARES</t>
+  </si>
+  <si>
+    <t>RIVERA</t>
+  </si>
+  <si>
+    <t>SALAZAR</t>
+  </si>
+  <si>
+    <t>RUIZ</t>
+  </si>
+  <si>
+    <t>TIBURCIO</t>
+  </si>
+  <si>
+    <t>TRUJILLO</t>
+  </si>
+  <si>
+    <t>VELAZQEZ</t>
+  </si>
+  <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
+    <t>CANTELLAN</t>
+  </si>
+  <si>
+    <t>GAMEZ</t>
+  </si>
+  <si>
+    <t>MAYA</t>
+  </si>
+  <si>
+    <t>NAJERA</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
+    <t>CONTRERAS</t>
+  </si>
+  <si>
+    <t>MORA</t>
+  </si>
+  <si>
+    <t>VILLEGAS</t>
+  </si>
+  <si>
+    <t>COLOHUA</t>
+  </si>
+  <si>
+    <t>TREJO</t>
+  </si>
+  <si>
+    <t>MEJIA</t>
+  </si>
+  <si>
+    <t>GASPAR</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>SOLIS</t>
+  </si>
+  <si>
+    <t>GALEOTE</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>OFICIAL</t>
+  </si>
+  <si>
+    <t>ROMANOS</t>
+  </si>
+  <si>
+    <t>ZOPIYACTLE</t>
+  </si>
+  <si>
+    <t>MAZAHUA</t>
+  </si>
+  <si>
+    <t>LEON</t>
+  </si>
+  <si>
+    <t>GUERRA</t>
+  </si>
+  <si>
+    <t>TZIZIHUA</t>
+  </si>
+  <si>
+    <t>VILLA</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>CARRASCO</t>
+  </si>
+  <si>
+    <t>JUAREZ</t>
+  </si>
+  <si>
+    <t>SUAREZ</t>
+  </si>
+  <si>
+    <t>APARICIO</t>
+  </si>
+  <si>
+    <t>BAXIN</t>
+  </si>
+  <si>
+    <t>REYNOSO</t>
+  </si>
+  <si>
+    <t>HERRERA</t>
+  </si>
+  <si>
+    <t>BARRAGAN</t>
+  </si>
+  <si>
+    <t>MARIA FERNANDA</t>
+  </si>
+  <si>
+    <t>ORTEGA</t>
+  </si>
+  <si>
+    <t>DE LA LUZ</t>
+  </si>
+  <si>
+    <t>HUERTA</t>
+  </si>
+  <si>
+    <t>LARA</t>
+  </si>
+  <si>
+    <t>SILVERIO</t>
+  </si>
+  <si>
+    <t>MONTALVO</t>
+  </si>
+  <si>
+    <t>TLAXCALA</t>
+  </si>
+  <si>
+    <t>JOCELYN</t>
+  </si>
+  <si>
+    <t>MIA VALENTINA</t>
+  </si>
+  <si>
+    <t>FRIDA SOFIA</t>
+  </si>
+  <si>
+    <t>ANTONIO ABIDAN</t>
+  </si>
+  <si>
+    <t>MILAGROS</t>
+  </si>
+  <si>
+    <t>MARITZA JULIANA</t>
+  </si>
+  <si>
+    <t>LESLIE</t>
+  </si>
+  <si>
+    <t>YEILI DAYNERIS</t>
+  </si>
+  <si>
+    <t>DIANA SARAY</t>
+  </si>
+  <si>
+    <t>INGRID SARAI</t>
+  </si>
+  <si>
+    <t>MARIA XIMENA</t>
+  </si>
+  <si>
+    <t>LUIS DIEGO</t>
+  </si>
+  <si>
+    <t>EMILY</t>
+  </si>
+  <si>
+    <t>GUADALUPE</t>
+  </si>
+  <si>
+    <t>JESUS HUMBERTO</t>
+  </si>
+  <si>
+    <t>DANIEL ELEAZAR</t>
+  </si>
+  <si>
+    <t>MARCO JOSAFAT</t>
+  </si>
+  <si>
+    <t>MARISOL</t>
+  </si>
+  <si>
+    <t>AMARANTA DENISSE</t>
+  </si>
+  <si>
+    <t>MARIA</t>
+  </si>
+  <si>
+    <t>IVAN DE JESUS</t>
+  </si>
+  <si>
+    <t>TAILY</t>
+  </si>
+  <si>
+    <t>ALONDRA</t>
+  </si>
+  <si>
+    <t>MARCOS</t>
+  </si>
+  <si>
+    <t>JESUS SAMUEL</t>
+  </si>
+  <si>
+    <t>JESUS ANTONIO</t>
+  </si>
+  <si>
+    <t>JAVIER ANTONIO</t>
+  </si>
+  <si>
+    <t>DORA LUZ</t>
+  </si>
+  <si>
+    <t>IVETTE</t>
+  </si>
+  <si>
+    <t>JOSE ANTONIO</t>
+  </si>
+  <si>
+    <t>IAN URIEL</t>
+  </si>
+  <si>
+    <t>MARTIN</t>
+  </si>
+  <si>
+    <t>ELIAS ALONSO</t>
+  </si>
+  <si>
+    <t>KARLA RENATA</t>
+  </si>
+  <si>
+    <t>MIGUEL ANGEL ONAM</t>
+  </si>
+  <si>
+    <t>KAREN YAZMIN</t>
+  </si>
+  <si>
+    <t>MELANIE NAOMI</t>
+  </si>
+  <si>
+    <t>CONSUELO DALILA</t>
+  </si>
+  <si>
+    <t>EMELIN JIROMI</t>
+  </si>
+  <si>
+    <t>ITZEL</t>
+  </si>
+  <si>
+    <t>AIDA</t>
+  </si>
+  <si>
+    <t>ODALYS</t>
+  </si>
+  <si>
+    <t>KIMBERLY ALONDRA</t>
+  </si>
+  <si>
+    <t>YAZMIN</t>
+  </si>
+  <si>
+    <t>ABDIEL</t>
+  </si>
+  <si>
+    <t>ARIANDY LIZETTE</t>
+  </si>
+  <si>
+    <t>VALERIA</t>
+  </si>
+  <si>
+    <t>SANDY SAMARA</t>
+  </si>
+  <si>
+    <t>INGRID YALITH</t>
+  </si>
+  <si>
+    <t>LUCERO</t>
+  </si>
+  <si>
+    <t>XIMENA MICHELL</t>
+  </si>
+  <si>
+    <t>DIANA VIANNEY</t>
+  </si>
+  <si>
+    <t>KIMBERLY</t>
+  </si>
+  <si>
+    <t>PAULINA</t>
+  </si>
+  <si>
+    <t>GUILLERMO SAID</t>
+  </si>
+  <si>
+    <t>DANIELA DEL CARMEN</t>
+  </si>
+  <si>
+    <t>ROGELIO</t>
+  </si>
+  <si>
+    <t>FRANCISCO YAEL</t>
+  </si>
+  <si>
+    <t>VICTOR HUGO</t>
+  </si>
+  <si>
+    <t>JUAN GUILLERMO</t>
+  </si>
+  <si>
+    <t>MICHELLE ROBERTA</t>
+  </si>
+  <si>
+    <t>JOSE MANUEL</t>
+  </si>
+  <si>
+    <t>JAQUELINE</t>
   </si>
 </sst>
 </file>
@@ -857,7 +1307,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -890,6 +1340,1524 @@
         <v>18</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>20330051920192</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>20330051920197</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>20330051920199</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>20330051920200</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>19330051920280</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>20330051920206</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>20330051920208</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>20330051920209</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>20330051920211</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>20330051920212</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>20330051920216</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>20330051920217</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>20330051920219</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>20330051920265</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>20330051920268</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>20330051920274</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>20330051920278</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>20330051920281</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>20330051920116</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" t="s">
+        <v>124</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>20330051920121</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" t="s">
+        <v>125</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>20330051920136</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>20330051920389</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>20330051920144</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" t="s">
+        <v>128</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>20330051920322</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" t="s">
+        <v>129</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>20330051920323</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>20330051920326</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" t="s">
+        <v>131</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>20330051920332</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>20330051920335</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" t="s">
+        <v>133</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>20330051920260</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" t="s">
+        <v>134</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>19330051920314</v>
+      </c>
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" t="s">
+        <v>135</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>20330051920262</v>
+      </c>
+      <c r="B32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" t="s">
+        <v>136</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>20330051920269</v>
+      </c>
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" t="s">
+        <v>137</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>20330051920270</v>
+      </c>
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" t="s">
+        <v>138</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>20330051920271</v>
+      </c>
+      <c r="B35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" t="s">
+        <v>139</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>20330051920272</v>
+      </c>
+      <c r="B36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" t="s">
+        <v>140</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>20330051920276</v>
+      </c>
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" t="s">
+        <v>141</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>20330051920115</v>
+      </c>
+      <c r="B38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" t="s">
+        <v>142</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>20330051920118</v>
+      </c>
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" t="s">
+        <v>143</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>20330051920119</v>
+      </c>
+      <c r="B40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" t="s">
+        <v>98</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>20330051920123</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" t="s">
+        <v>144</v>
+      </c>
+      <c r="E41" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>20330051920124</v>
+      </c>
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" t="s">
+        <v>145</v>
+      </c>
+      <c r="E42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>20330051920125</v>
+      </c>
+      <c r="B43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" t="s">
+        <v>146</v>
+      </c>
+      <c r="E43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>20330051920127</v>
+      </c>
+      <c r="B44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" t="s">
+        <v>147</v>
+      </c>
+      <c r="E44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>20330051920128</v>
+      </c>
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" t="s">
+        <v>148</v>
+      </c>
+      <c r="E45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>20330051920129</v>
+      </c>
+      <c r="B46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" t="s">
+        <v>149</v>
+      </c>
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>20330051920133</v>
+      </c>
+      <c r="B47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>150</v>
+      </c>
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>20330051920138</v>
+      </c>
+      <c r="B48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" t="s">
+        <v>94</v>
+      </c>
+      <c r="D48" t="s">
+        <v>151</v>
+      </c>
+      <c r="E48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>20330051920139</v>
+      </c>
+      <c r="B49" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49" t="s">
+        <v>152</v>
+      </c>
+      <c r="E49" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>19330051920387</v>
+      </c>
+      <c r="B50" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" t="s">
+        <v>41</v>
+      </c>
+      <c r="D50" t="s">
+        <v>153</v>
+      </c>
+      <c r="E50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>20330051920140</v>
+      </c>
+      <c r="B51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" t="s">
+        <v>98</v>
+      </c>
+      <c r="E51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>20330051920142</v>
+      </c>
+      <c r="B52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>154</v>
+      </c>
+      <c r="E52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>20330051920143</v>
+      </c>
+      <c r="B53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53" t="s">
+        <v>155</v>
+      </c>
+      <c r="E53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>20330051920387</v>
+      </c>
+      <c r="B54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" t="s">
+        <v>98</v>
+      </c>
+      <c r="D54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E54" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>20330051920145</v>
+      </c>
+      <c r="B55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D55" t="s">
+        <v>156</v>
+      </c>
+      <c r="E55" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <v>20330051920150</v>
+      </c>
+      <c r="B56" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" t="s">
+        <v>99</v>
+      </c>
+      <c r="D56" t="s">
+        <v>157</v>
+      </c>
+      <c r="E56" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57">
+        <v>20330051920153</v>
+      </c>
+      <c r="B57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" t="s">
+        <v>100</v>
+      </c>
+      <c r="D57" t="s">
+        <v>158</v>
+      </c>
+      <c r="E57" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <v>20330051920154</v>
+      </c>
+      <c r="B58" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" t="s">
+        <v>36</v>
+      </c>
+      <c r="D58" t="s">
+        <v>159</v>
+      </c>
+      <c r="E58" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59">
+        <v>20330051920318</v>
+      </c>
+      <c r="B59" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" t="s">
+        <v>101</v>
+      </c>
+      <c r="D59" t="s">
+        <v>160</v>
+      </c>
+      <c r="E59" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60">
+        <v>20330051920320</v>
+      </c>
+      <c r="B60" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60" t="s">
+        <v>102</v>
+      </c>
+      <c r="D60" t="s">
+        <v>161</v>
+      </c>
+      <c r="E60" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61">
+        <v>20330051920380</v>
+      </c>
+      <c r="B61" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" t="s">
+        <v>103</v>
+      </c>
+      <c r="D61" t="s">
+        <v>162</v>
+      </c>
+      <c r="E61" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62">
+        <v>20330051920327</v>
+      </c>
+      <c r="B62" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" t="s">
+        <v>47</v>
+      </c>
+      <c r="D62" t="s">
+        <v>163</v>
+      </c>
+      <c r="E62" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63">
+        <v>20330051920396</v>
+      </c>
+      <c r="B63" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63" t="s">
+        <v>28</v>
+      </c>
+      <c r="D63" t="s">
+        <v>164</v>
+      </c>
+      <c r="E63" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64">
+        <v>20330051920329</v>
+      </c>
+      <c r="B64" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64" t="s">
+        <v>104</v>
+      </c>
+      <c r="D64" t="s">
+        <v>165</v>
+      </c>
+      <c r="E64" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65">
+        <v>20330051920331</v>
+      </c>
+      <c r="B65" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" t="s">
+        <v>45</v>
+      </c>
+      <c r="D65" t="s">
+        <v>166</v>
+      </c>
+      <c r="E65" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66">
+        <v>20330051920333</v>
+      </c>
+      <c r="B66" t="s">
+        <v>30</v>
+      </c>
+      <c r="C66" t="s">
+        <v>78</v>
+      </c>
+      <c r="D66" t="s">
+        <v>167</v>
+      </c>
+      <c r="E66" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67">
+        <v>20330051920334</v>
+      </c>
+      <c r="B67" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" t="s">
+        <v>105</v>
+      </c>
+      <c r="D67" t="s">
+        <v>168</v>
+      </c>
+      <c r="E67" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Santiago Hernández Mariana - Estadisticos 2020.xlsx
+++ b/docentes/Santiago Hernández Mariana - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="63">
   <si>
     <t>Mat</t>
   </si>
@@ -76,9 +76,39 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>ESTEVEZ</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>DE LUNA</t>
+  </si>
+  <si>
+    <t>SANTIAGO</t>
+  </si>
+  <si>
+    <t>PACHECO</t>
+  </si>
+  <si>
+    <t>DE LA ROSA</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
     <t>ARIAS</t>
   </si>
   <si>
+    <t>GALVEZ</t>
+  </si>
+  <si>
     <t>DE LA TEJA</t>
   </si>
   <si>
@@ -88,60 +118,84 @@
     <t>RAMOS</t>
   </si>
   <si>
-    <t>PACHECO</t>
-  </si>
-  <si>
-    <t>DE LA ROSA</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
-    <t>GALVEZ</t>
-  </si>
-  <si>
     <t>CANTELLAN</t>
   </si>
   <si>
+    <t>MORENO</t>
+  </si>
+  <si>
+    <t>ROQUE</t>
+  </si>
+  <si>
+    <t>CORDOVA</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>MAZAHUA</t>
+  </si>
+  <si>
+    <t>CASTRO</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>GUERRA</t>
+  </si>
+  <si>
+    <t>TZIZIHUA</t>
+  </si>
+  <si>
     <t>BARRAGAN</t>
   </si>
   <si>
+    <t>COLOHUA</t>
+  </si>
+  <si>
     <t>RAMIREZ</t>
   </si>
   <si>
     <t>XOTLANIHUA</t>
   </si>
   <si>
-    <t>MAZAHUA</t>
-  </si>
-  <si>
-    <t>CASTRO</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>GUERRA</t>
-  </si>
-  <si>
-    <t>TZIZIHUA</t>
-  </si>
-  <si>
-    <t>COLOHUA</t>
-  </si>
-  <si>
     <t>LARA</t>
   </si>
   <si>
+    <t>ERICK DE JESUS</t>
+  </si>
+  <si>
+    <t>AMARELY GUADALUPE</t>
+  </si>
+  <si>
+    <t>EUDY</t>
+  </si>
+  <si>
+    <t>AXEL YAEL</t>
+  </si>
+  <si>
+    <t>TAILY</t>
+  </si>
+  <si>
+    <t>ALONDRA</t>
+  </si>
+  <si>
+    <t>JESUS ANTONIO</t>
+  </si>
+  <si>
+    <t>JAVIER ANTONIO</t>
+  </si>
+  <si>
+    <t>DORA LUZ</t>
+  </si>
+  <si>
     <t>ANALI</t>
   </si>
   <si>
+    <t>ANTONIO ABIDAN</t>
+  </si>
+  <si>
     <t>ALISSON FERNANDA</t>
   </si>
   <si>
@@ -149,24 +203,6 @@
   </si>
   <si>
     <t>MARCO JOSAFAT</t>
-  </si>
-  <si>
-    <t>TAILY</t>
-  </si>
-  <si>
-    <t>ALONDRA</t>
-  </si>
-  <si>
-    <t>JESUS ANTONIO</t>
-  </si>
-  <si>
-    <t>JAVIER ANTONIO</t>
-  </si>
-  <si>
-    <t>DORA LUZ</t>
-  </si>
-  <si>
-    <t>ANTONIO ABIDAN</t>
   </si>
   <si>
     <t>DANIELA DEL CARMEN</t>
@@ -965,7 +1001,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1000,16 +1036,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920191</v>
+        <v>20330051920196</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1023,16 +1059,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920218</v>
+        <v>20330051920198</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1046,16 +1082,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920274</v>
+        <v>19220030050208</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -1069,16 +1105,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920278</v>
+        <v>20330051920279</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1098,10 +1134,10 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -1121,10 +1157,10 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -1144,10 +1180,10 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -1167,10 +1203,10 @@
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -1190,10 +1226,10 @@
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -1207,16 +1243,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>20330051920200</v>
+        <v>20330051920191</v>
       </c>
       <c r="B11" t="s">
         <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -1230,24 +1266,116 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>20330051920320</v>
+        <v>20330051920200</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
       </c>
       <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>20330051920218</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>20330051920274</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>20330051920278</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>20330051920320</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
         <v>12</v>
       </c>
-      <c r="G12">
+      <c r="G16">
         <v>1</v>
       </c>
     </row>
